--- a/contratos/contratos-11-2019.xlsx
+++ b/contratos/contratos-11-2019.xlsx
@@ -1168,7 +1168,7 @@
     <t>FORNES DARIO A. Y FORNES CARLOS A. S.H.</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>SUBPRODUCTOS INTEGRALES S.R.L.</t>
@@ -1363,7 +1363,7 @@
     <t>KUTTEL SILVIA YOLANDA</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1381,7 +1381,7 @@
     <t>SANCHEZ SUSANA BEATRIZ FRANCISCA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>STECKLEIN MARIA RAQUEL</t>
@@ -1924,760 +1924,760 @@
     <t>252</t>
   </si>
   <si>
-    <t>58.500,00</t>
-  </si>
-  <si>
-    <t>73.500,00</t>
-  </si>
-  <si>
-    <t>29.600,00</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>84.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>142.967,50</t>
-  </si>
-  <si>
-    <t>324.000,00</t>
-  </si>
-  <si>
-    <t>866.000,00</t>
-  </si>
-  <si>
-    <t>1.204.000,00</t>
-  </si>
-  <si>
-    <t>11.100,00</t>
-  </si>
-  <si>
-    <t>4.274,00</t>
-  </si>
-  <si>
-    <t>46.506,00</t>
-  </si>
-  <si>
-    <t>3.779,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>1.098,00</t>
-  </si>
-  <si>
-    <t>6.580,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>6.224,48</t>
-  </si>
-  <si>
-    <t>65.840,00</t>
-  </si>
-  <si>
-    <t>24.357,96</t>
-  </si>
-  <si>
-    <t>13.600,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>857.155,44</t>
-  </si>
-  <si>
-    <t>99.881,95</t>
-  </si>
-  <si>
-    <t>29.400,00</t>
-  </si>
-  <si>
-    <t>1.590.723,60</t>
-  </si>
-  <si>
-    <t>91.888,00</t>
-  </si>
-  <si>
-    <t>32.146,60</t>
-  </si>
-  <si>
-    <t>151.229,72</t>
-  </si>
-  <si>
-    <t>14.462,00</t>
-  </si>
-  <si>
-    <t>48.036,99</t>
-  </si>
-  <si>
-    <t>79.840,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>35.500,00</t>
-  </si>
-  <si>
-    <t>2.332,88</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>49.450,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>18.924,00</t>
-  </si>
-  <si>
-    <t>6.301,00</t>
-  </si>
-  <si>
-    <t>95.472,00</t>
-  </si>
-  <si>
-    <t>235.334,00</t>
-  </si>
-  <si>
-    <t>110.475,00</t>
-  </si>
-  <si>
-    <t>56.910,00</t>
-  </si>
-  <si>
-    <t>6.361.699,23</t>
-  </si>
-  <si>
-    <t>124.021,30</t>
-  </si>
-  <si>
-    <t>161.174,40</t>
-  </si>
-  <si>
-    <t>1.740,00</t>
-  </si>
-  <si>
-    <t>8.560,50</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>4.320,90</t>
-  </si>
-  <si>
-    <t>171.870,00</t>
-  </si>
-  <si>
-    <t>11.881,76</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>566.748,00</t>
-  </si>
-  <si>
-    <t>33.774,98</t>
-  </si>
-  <si>
-    <t>2.340,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>17.150,00</t>
-  </si>
-  <si>
-    <t>1.455,00</t>
-  </si>
-  <si>
-    <t>8.910,00</t>
-  </si>
-  <si>
-    <t>153.576,85</t>
-  </si>
-  <si>
-    <t>2.697,18</t>
-  </si>
-  <si>
-    <t>10.550,00</t>
-  </si>
-  <si>
-    <t>234,99</t>
-  </si>
-  <si>
-    <t>175.437,78</t>
-  </si>
-  <si>
-    <t>19.900,00</t>
-  </si>
-  <si>
-    <t>17.205,78</t>
-  </si>
-  <si>
-    <t>5.040,08</t>
-  </si>
-  <si>
-    <t>419,00</t>
-  </si>
-  <si>
-    <t>1.998,00</t>
-  </si>
-  <si>
-    <t>8.425,97</t>
-  </si>
-  <si>
-    <t>2.365,54</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>3.000,80</t>
-  </si>
-  <si>
-    <t>7.567,16</t>
-  </si>
-  <si>
-    <t>9.852,00</t>
-  </si>
-  <si>
-    <t>125.880,95</t>
-  </si>
-  <si>
-    <t>8.140,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>23.240,00</t>
-  </si>
-  <si>
-    <t>17.600,00</t>
-  </si>
-  <si>
-    <t>52.500,00</t>
-  </si>
-  <si>
-    <t>34.500,00</t>
-  </si>
-  <si>
-    <t>245.040,00</t>
-  </si>
-  <si>
-    <t>79.560,00</t>
-  </si>
-  <si>
-    <t>191.900,00</t>
-  </si>
-  <si>
-    <t>11.725,64</t>
-  </si>
-  <si>
-    <t>6.428,62</t>
-  </si>
-  <si>
-    <t>47.880,00</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>34.050,00</t>
-  </si>
-  <si>
-    <t>127.331,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>15.700,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>53.856,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>13.125,00</t>
-  </si>
-  <si>
-    <t>29.860,00</t>
-  </si>
-  <si>
-    <t>15.730,00</t>
-  </si>
-  <si>
-    <t>4.665,00</t>
-  </si>
-  <si>
-    <t>18.700,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>5.460,00</t>
-  </si>
-  <si>
-    <t>1.008,20</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>33,00</t>
-  </si>
-  <si>
-    <t>25.887,38</t>
-  </si>
-  <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>3.190,00</t>
-  </si>
-  <si>
-    <t>69.901,64</t>
-  </si>
-  <si>
-    <t>286,00</t>
-  </si>
-  <si>
-    <t>300.042,00</t>
-  </si>
-  <si>
-    <t>2.345,00</t>
-  </si>
-  <si>
-    <t>11.190,00</t>
-  </si>
-  <si>
-    <t>13.357,00</t>
-  </si>
-  <si>
-    <t>5.776,00</t>
-  </si>
-  <si>
-    <t>2.962,50</t>
-  </si>
-  <si>
-    <t>14.870,00</t>
-  </si>
-  <si>
-    <t>12.532,00</t>
-  </si>
-  <si>
-    <t>63.820,72</t>
-  </si>
-  <si>
-    <t>1.828,80</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>1.125,20</t>
-  </si>
-  <si>
-    <t>4.432,00</t>
-  </si>
-  <si>
-    <t>19.490,00</t>
-  </si>
-  <si>
-    <t>1.497,72</t>
-  </si>
-  <si>
-    <t>1.910,70</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>39.600,00</t>
-  </si>
-  <si>
-    <t>25.500,00</t>
-  </si>
-  <si>
-    <t>76.040,00</t>
-  </si>
-  <si>
-    <t>16.490,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>92.966,00</t>
-  </si>
-  <si>
-    <t>340.717,72</t>
-  </si>
-  <si>
-    <t>6.677,64</t>
-  </si>
-  <si>
-    <t>197.087,00</t>
-  </si>
-  <si>
-    <t>300.965,00</t>
-  </si>
-  <si>
-    <t>20.060,00</t>
-  </si>
-  <si>
-    <t>11.600,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>29.300,00</t>
-  </si>
-  <si>
-    <t>89.800,00</t>
-  </si>
-  <si>
-    <t>51.200,00</t>
-  </si>
-  <si>
-    <t>103.500,00</t>
-  </si>
-  <si>
-    <t>159.500,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>139.500,00</t>
-  </si>
-  <si>
-    <t>91.000,00</t>
-  </si>
-  <si>
-    <t>1.765.400,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>15.445,20</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>111.000,00</t>
-  </si>
-  <si>
-    <t>79.500,00</t>
-  </si>
-  <si>
-    <t>10.040,21</t>
-  </si>
-  <si>
-    <t>10.300,00</t>
-  </si>
-  <si>
-    <t>456,19</t>
-  </si>
-  <si>
-    <t>7.291,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>677,99</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>244.319,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>52.166,50</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>41.300,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>8.690,00</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>593,78</t>
-  </si>
-  <si>
-    <t>18.824,00</t>
-  </si>
-  <si>
-    <t>3.823,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>5.655,36</t>
-  </si>
-  <si>
-    <t>13.922,74</t>
-  </si>
-  <si>
-    <t>46.580,72</t>
-  </si>
-  <si>
-    <t>23.342,00</t>
-  </si>
-  <si>
-    <t>16.918,31</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>10.900,00</t>
-  </si>
-  <si>
-    <t>22.339,14</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>3.640,00</t>
-  </si>
-  <si>
-    <t>1.234,00</t>
-  </si>
-  <si>
-    <t>33.850,00</t>
-  </si>
-  <si>
-    <t>95.725,00</t>
-  </si>
-  <si>
-    <t>16.505,05</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>1.290,00</t>
-  </si>
-  <si>
-    <t>106.045,52</t>
-  </si>
-  <si>
-    <t>183.348,00</t>
-  </si>
-  <si>
-    <t>22.945.900,95</t>
-  </si>
-  <si>
-    <t>85.000,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>265.000,00</t>
-  </si>
-  <si>
-    <t>290.100,00</t>
-  </si>
-  <si>
-    <t>326.400,00</t>
-  </si>
-  <si>
-    <t>294.000,00</t>
-  </si>
-  <si>
-    <t>302.100,00</t>
-  </si>
-  <si>
-    <t>308.100,00</t>
-  </si>
-  <si>
-    <t>317.700,00</t>
-  </si>
-  <si>
-    <t>552.850,00</t>
-  </si>
-  <si>
-    <t>722.000,00</t>
-  </si>
-  <si>
-    <t>705.000,00</t>
-  </si>
-  <si>
-    <t>385.500,00</t>
-  </si>
-  <si>
-    <t>580.200,00</t>
-  </si>
-  <si>
-    <t>452.200,00</t>
-  </si>
-  <si>
-    <t>586.300,00</t>
-  </si>
-  <si>
-    <t>834.500,00</t>
-  </si>
-  <si>
-    <t>553.600,00</t>
-  </si>
-  <si>
-    <t>866.400,00</t>
-  </si>
-  <si>
-    <t>303.950,00</t>
-  </si>
-  <si>
-    <t>140.680,00</t>
-  </si>
-  <si>
-    <t>1.201.024,04</t>
-  </si>
-  <si>
-    <t>405.000,00</t>
-  </si>
-  <si>
-    <t>258.720,00</t>
-  </si>
-  <si>
-    <t>577.900,00</t>
-  </si>
-  <si>
-    <t>186.000,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>119.000,00</t>
-  </si>
-  <si>
-    <t>211.251,15</t>
-  </si>
-  <si>
-    <t>224.250,00</t>
-  </si>
-  <si>
-    <t>25.950,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>76.700,00</t>
-  </si>
-  <si>
-    <t>40.820,00</t>
+    <t>58500.00</t>
+  </si>
+  <si>
+    <t>73500.00</t>
+  </si>
+  <si>
+    <t>29600.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>84000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>142967.50</t>
+  </si>
+  <si>
+    <t>324000.00</t>
+  </si>
+  <si>
+    <t>866000.00</t>
+  </si>
+  <si>
+    <t>1204000.00</t>
+  </si>
+  <si>
+    <t>11100.00</t>
+  </si>
+  <si>
+    <t>4274.00</t>
+  </si>
+  <si>
+    <t>46506.00</t>
+  </si>
+  <si>
+    <t>3779.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>1098.00</t>
+  </si>
+  <si>
+    <t>6580.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>6224.48</t>
+  </si>
+  <si>
+    <t>65840.00</t>
+  </si>
+  <si>
+    <t>24357.96</t>
+  </si>
+  <si>
+    <t>13600.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>857155.44</t>
+  </si>
+  <si>
+    <t>99881.95</t>
+  </si>
+  <si>
+    <t>29400.00</t>
+  </si>
+  <si>
+    <t>1590723.60</t>
+  </si>
+  <si>
+    <t>91888.00</t>
+  </si>
+  <si>
+    <t>32146.60</t>
+  </si>
+  <si>
+    <t>151229.72</t>
+  </si>
+  <si>
+    <t>14462.00</t>
+  </si>
+  <si>
+    <t>48036.99</t>
+  </si>
+  <si>
+    <t>79840.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>35500.00</t>
+  </si>
+  <si>
+    <t>2332.88</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>49450.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>18924.00</t>
+  </si>
+  <si>
+    <t>6301.00</t>
+  </si>
+  <si>
+    <t>95472.00</t>
+  </si>
+  <si>
+    <t>235334.00</t>
+  </si>
+  <si>
+    <t>110475.00</t>
+  </si>
+  <si>
+    <t>56910.00</t>
+  </si>
+  <si>
+    <t>6361699.23</t>
+  </si>
+  <si>
+    <t>124021.30</t>
+  </si>
+  <si>
+    <t>161174.40</t>
+  </si>
+  <si>
+    <t>1740.00</t>
+  </si>
+  <si>
+    <t>8560.50</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>4320.90</t>
+  </si>
+  <si>
+    <t>171870.00</t>
+  </si>
+  <si>
+    <t>11881.76</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>566748.00</t>
+  </si>
+  <si>
+    <t>33774.98</t>
+  </si>
+  <si>
+    <t>2340.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>17150.00</t>
+  </si>
+  <si>
+    <t>1455.00</t>
+  </si>
+  <si>
+    <t>8910.00</t>
+  </si>
+  <si>
+    <t>153576.85</t>
+  </si>
+  <si>
+    <t>2697.18</t>
+  </si>
+  <si>
+    <t>10550.00</t>
+  </si>
+  <si>
+    <t>234.99</t>
+  </si>
+  <si>
+    <t>175437.78</t>
+  </si>
+  <si>
+    <t>19900.00</t>
+  </si>
+  <si>
+    <t>17205.78</t>
+  </si>
+  <si>
+    <t>5040.08</t>
+  </si>
+  <si>
+    <t>419.00</t>
+  </si>
+  <si>
+    <t>1998.00</t>
+  </si>
+  <si>
+    <t>8425.97</t>
+  </si>
+  <si>
+    <t>2365.54</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>3000.80</t>
+  </si>
+  <si>
+    <t>7567.16</t>
+  </si>
+  <si>
+    <t>9852.00</t>
+  </si>
+  <si>
+    <t>125880.95</t>
+  </si>
+  <si>
+    <t>8140.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>23240.00</t>
+  </si>
+  <si>
+    <t>17600.00</t>
+  </si>
+  <si>
+    <t>52500.00</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>245040.00</t>
+  </si>
+  <si>
+    <t>79560.00</t>
+  </si>
+  <si>
+    <t>191900.00</t>
+  </si>
+  <si>
+    <t>11725.64</t>
+  </si>
+  <si>
+    <t>6428.62</t>
+  </si>
+  <si>
+    <t>47880.00</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>34050.00</t>
+  </si>
+  <si>
+    <t>127331.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>15700.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>53856.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>13125.00</t>
+  </si>
+  <si>
+    <t>29860.00</t>
+  </si>
+  <si>
+    <t>15730.00</t>
+  </si>
+  <si>
+    <t>4665.00</t>
+  </si>
+  <si>
+    <t>18700.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>5460.00</t>
+  </si>
+  <si>
+    <t>1008.20</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>25887.38</t>
+  </si>
+  <si>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>3190.00</t>
+  </si>
+  <si>
+    <t>69901.64</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>300042.00</t>
+  </si>
+  <si>
+    <t>2345.00</t>
+  </si>
+  <si>
+    <t>11190.00</t>
+  </si>
+  <si>
+    <t>13357.00</t>
+  </si>
+  <si>
+    <t>5776.00</t>
+  </si>
+  <si>
+    <t>2962.50</t>
+  </si>
+  <si>
+    <t>14870.00</t>
+  </si>
+  <si>
+    <t>12532.00</t>
+  </si>
+  <si>
+    <t>63820.72</t>
+  </si>
+  <si>
+    <t>1828.80</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>1125.20</t>
+  </si>
+  <si>
+    <t>4432.00</t>
+  </si>
+  <si>
+    <t>19490.00</t>
+  </si>
+  <si>
+    <t>1497.72</t>
+  </si>
+  <si>
+    <t>1910.70</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>39600.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>76040.00</t>
+  </si>
+  <si>
+    <t>16490.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>92966.00</t>
+  </si>
+  <si>
+    <t>340717.72</t>
+  </si>
+  <si>
+    <t>6677.64</t>
+  </si>
+  <si>
+    <t>197087.00</t>
+  </si>
+  <si>
+    <t>300965.00</t>
+  </si>
+  <si>
+    <t>20060.00</t>
+  </si>
+  <si>
+    <t>11600.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>29300.00</t>
+  </si>
+  <si>
+    <t>89800.00</t>
+  </si>
+  <si>
+    <t>51200.00</t>
+  </si>
+  <si>
+    <t>103500.00</t>
+  </si>
+  <si>
+    <t>159500.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>139500.00</t>
+  </si>
+  <si>
+    <t>91000.00</t>
+  </si>
+  <si>
+    <t>1765400.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>15445.20</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>111000.00</t>
+  </si>
+  <si>
+    <t>79500.00</t>
+  </si>
+  <si>
+    <t>10040.21</t>
+  </si>
+  <si>
+    <t>10300.00</t>
+  </si>
+  <si>
+    <t>456.19</t>
+  </si>
+  <si>
+    <t>7291.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>677.99</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>244319.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>52166.50</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>41300.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>8690.00</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>593.78</t>
+  </si>
+  <si>
+    <t>18824.00</t>
+  </si>
+  <si>
+    <t>3823.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>5655.36</t>
+  </si>
+  <si>
+    <t>13922.74</t>
+  </si>
+  <si>
+    <t>46580.72</t>
+  </si>
+  <si>
+    <t>23342.00</t>
+  </si>
+  <si>
+    <t>16918.31</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>10900.00</t>
+  </si>
+  <si>
+    <t>22339.14</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>3640.00</t>
+  </si>
+  <si>
+    <t>1234.00</t>
+  </si>
+  <si>
+    <t>33850.00</t>
+  </si>
+  <si>
+    <t>95725.00</t>
+  </si>
+  <si>
+    <t>16505.05</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>1290.00</t>
+  </si>
+  <si>
+    <t>106045.52</t>
+  </si>
+  <si>
+    <t>183348.00</t>
+  </si>
+  <si>
+    <t>22945900.95</t>
+  </si>
+  <si>
+    <t>85000.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>265000.00</t>
+  </si>
+  <si>
+    <t>290100.00</t>
+  </si>
+  <si>
+    <t>326400.00</t>
+  </si>
+  <si>
+    <t>294000.00</t>
+  </si>
+  <si>
+    <t>302100.00</t>
+  </si>
+  <si>
+    <t>308100.00</t>
+  </si>
+  <si>
+    <t>317700.00</t>
+  </si>
+  <si>
+    <t>552850.00</t>
+  </si>
+  <si>
+    <t>722000.00</t>
+  </si>
+  <si>
+    <t>705000.00</t>
+  </si>
+  <si>
+    <t>385500.00</t>
+  </si>
+  <si>
+    <t>580200.00</t>
+  </si>
+  <si>
+    <t>452200.00</t>
+  </si>
+  <si>
+    <t>586300.00</t>
+  </si>
+  <si>
+    <t>834500.00</t>
+  </si>
+  <si>
+    <t>553600.00</t>
+  </si>
+  <si>
+    <t>866400.00</t>
+  </si>
+  <si>
+    <t>303950.00</t>
+  </si>
+  <si>
+    <t>140680.00</t>
+  </si>
+  <si>
+    <t>1201024.04</t>
+  </si>
+  <si>
+    <t>405000.00</t>
+  </si>
+  <si>
+    <t>258720.00</t>
+  </si>
+  <si>
+    <t>577900.00</t>
+  </si>
+  <si>
+    <t>186000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>119000.00</t>
+  </si>
+  <si>
+    <t>211251.15</t>
+  </si>
+  <si>
+    <t>224250.00</t>
+  </si>
+  <si>
+    <t>25950.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>76700.00</t>
+  </si>
+  <si>
+    <t>40820.00</t>
   </si>
 </sst>
 </file>
